--- a/Unidad I/ModelosER/PruebasAerolinea.xlsx
+++ b/Unidad I/ModelosER/PruebasAerolinea.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Teach UNAH\Bases de Datos I\2016-II\Repositorio de Ejercicios\Unidad I\ModelosER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Teach UNAH\Bases de Datos I\2016-II\Repositorio de Ejercicios\IS501-II2016\Unidad I\ModelosER\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="12495" windowHeight="4320"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="12495" windowHeight="4320"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>AVION</t>
   </si>
@@ -41,9 +41,6 @@
     <t>CODIGO_MODELO</t>
   </si>
   <si>
-    <t>FSDFSD</t>
-  </si>
-  <si>
     <t>NOMBRE_MODELO</t>
   </si>
   <si>
@@ -56,13 +53,43 @@
     <t>MARCAX</t>
   </si>
   <si>
-    <t>COROLA</t>
-  </si>
-  <si>
-    <t>PRADO</t>
-  </si>
-  <si>
-    <t>TOYOTA</t>
+    <t>CODIGO_ASIENTO</t>
+  </si>
+  <si>
+    <t>ASIENTOS</t>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>VENTANA</t>
+  </si>
+  <si>
+    <t>B40</t>
+  </si>
+  <si>
+    <t>B20</t>
+  </si>
+  <si>
+    <t>BOEING</t>
+  </si>
+  <si>
+    <t>TIPO COMBUSTIBLE</t>
+  </si>
+  <si>
+    <t>DIESEL CON DINAMAX</t>
+  </si>
+  <si>
+    <t>TIPOS COMBUSTIBLE</t>
+  </si>
+  <si>
+    <t>CODIGO_COMBUSTIBLE</t>
+  </si>
+  <si>
+    <t>NOMBRE_COMBUSTIBLE</t>
+  </si>
+  <si>
+    <t>Problemas de integridad/consistencia/REDUNDANCIA</t>
   </si>
 </sst>
 </file>
@@ -317,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -334,6 +361,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,26 +642,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B7:G17"/>
+  <dimension ref="B6:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
@@ -641,38 +678,56 @@
         <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>1</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>2</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7">
         <v>3</v>
       </c>
       <c r="C11" s="8">
         <v>2</v>
       </c>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>2</v>
       </c>
@@ -681,29 +736,30 @@
       </c>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="F15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
         <v>1</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D16" s="14">
         <v>1</v>
@@ -712,7 +768,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -720,7 +776,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D17" s="15">
         <v>1</v>
@@ -729,10 +785,63 @@
         <v>2</v>
       </c>
       <c r="G17" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="16"/>
+    </row>
+    <row r="21" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="5">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="5">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="7">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Unidad I/ModelosER/PruebasAerolinea.xlsx
+++ b/Unidad I/ModelosER/PruebasAerolinea.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="12495" windowHeight="4320"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="12495" windowHeight="4320"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
   <si>
     <t>AVION</t>
   </si>
@@ -90,14 +90,158 @@
   </si>
   <si>
     <t>Problemas de integridad/consistencia/REDUNDANCIA</t>
+  </si>
+  <si>
+    <t>CODIGO_COLOR</t>
+  </si>
+  <si>
+    <t>COLORES</t>
+  </si>
+  <si>
+    <t>NOMBRE_COLOR</t>
+  </si>
+  <si>
+    <t>BLANCO</t>
+  </si>
+  <si>
+    <t>NEGRO</t>
+  </si>
+  <si>
+    <t>AZUL</t>
+  </si>
+  <si>
+    <t>FLUORECENTE</t>
+  </si>
+  <si>
+    <t>COLORES_X_AVION</t>
+  </si>
+  <si>
+    <t>TRIPULANTE</t>
+  </si>
+  <si>
+    <t>PROFESION</t>
+  </si>
+  <si>
+    <t>CODIGO_TRIPULANTE</t>
+  </si>
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>CODIGO_PROFESION</t>
+  </si>
+  <si>
+    <t>INGENIERO EN SISTEMAS</t>
+  </si>
+  <si>
+    <t>INGENIERO MECANICO</t>
+  </si>
+  <si>
+    <t>LICENCIADO EN DERECHO</t>
+  </si>
+  <si>
+    <t>JUAN</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>PEDRO</t>
+  </si>
+  <si>
+    <t>PROFESION_X_TRIPULANTE</t>
+  </si>
+  <si>
+    <t>VUELO</t>
+  </si>
+  <si>
+    <t>CODIGO_VUELO</t>
+  </si>
+  <si>
+    <t>HONDURAS</t>
+  </si>
+  <si>
+    <t>DINAMARCA</t>
+  </si>
+  <si>
+    <t>HORA_SALIDA</t>
+  </si>
+  <si>
+    <t>1PM</t>
+  </si>
+  <si>
+    <t>2PM</t>
+  </si>
+  <si>
+    <t>TRIPULANTE_X_VUELO</t>
+  </si>
+  <si>
+    <t>PILOTO</t>
+  </si>
+  <si>
+    <t>COPILOTO</t>
+  </si>
+  <si>
+    <t>AREMOSO</t>
+  </si>
+  <si>
+    <t>NUMERO_VUELO</t>
+  </si>
+  <si>
+    <t>N56</t>
+  </si>
+  <si>
+    <t>J66</t>
+  </si>
+  <si>
+    <t>LUGARES</t>
+  </si>
+  <si>
+    <t>CODIGO_LUGAR</t>
+  </si>
+  <si>
+    <t>NOMBRE_LUGAR</t>
+  </si>
+  <si>
+    <t>NICARAGUA</t>
+  </si>
+  <si>
+    <t>PANAMA</t>
+  </si>
+  <si>
+    <t>COSTARICA</t>
+  </si>
+  <si>
+    <t>ESCALA_X_VUELO</t>
+  </si>
+  <si>
+    <t>TIEMPO_PROMEDIO</t>
+  </si>
+  <si>
+    <t>ORDEN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -113,7 +257,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -340,11 +484,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -362,6 +528,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:H25"/>
+  <dimension ref="B6:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="C59" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,8 +826,10 @@
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -671,15 +846,16 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="11" t="s">
         <v>16</v>
       </c>
+      <c r="E8" s="16"/>
       <c r="G8" s="1" t="s">
         <v>19</v>
       </c>
@@ -694,9 +870,10 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
+      <c r="D9" s="11">
+        <v>1</v>
+      </c>
+      <c r="E9" s="22"/>
       <c r="G9" s="1">
         <v>1</v>
       </c>
@@ -711,9 +888,10 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
+      <c r="D10" s="11">
+        <v>1</v>
+      </c>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7">
@@ -722,9 +900,10 @@
       <c r="C11" s="8">
         <v>2</v>
       </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
+      <c r="D11" s="11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="22"/>
     </row>
     <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -771,7 +950,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7">
         <v>2</v>
       </c>
@@ -788,15 +967,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G18" s="16"/>
     </row>
-    <row r="21" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
@@ -806,8 +988,15 @@
       <c r="D22" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
         <v>1</v>
       </c>
@@ -817,8 +1006,14 @@
       <c r="D23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="5">
         <v>2</v>
       </c>
@@ -828,8 +1023,14 @@
       <c r="D24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="5">
+        <v>2</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="7">
         <v>3</v>
       </c>
@@ -838,6 +1039,421 @@
       </c>
       <c r="D25" s="1">
         <v>2</v>
+      </c>
+      <c r="F25" s="5">
+        <v>3</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="7">
+        <v>4</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F30" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F31" s="5">
+        <v>1</v>
+      </c>
+      <c r="G31" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F32" s="5">
+        <v>1</v>
+      </c>
+      <c r="G32" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F33" s="5">
+        <v>1</v>
+      </c>
+      <c r="G33" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F34" s="7">
+        <v>2</v>
+      </c>
+      <c r="G34" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F35" s="18"/>
+      <c r="G35" s="19"/>
+    </row>
+    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F36" s="18"/>
+      <c r="G36" s="19"/>
+    </row>
+    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F37" s="18"/>
+      <c r="G37" s="19"/>
+    </row>
+    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F38" s="18"/>
+      <c r="G38" s="19"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="1">
+        <v>2</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="1">
+        <v>3</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E56" s="1">
+        <v>2</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" s="1">
+        <v>2</v>
+      </c>
+      <c r="F57" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="1">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="1">
+        <v>2</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="1">
+        <v>3</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F61" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F62" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G62" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H62" t="s">
+        <v>63</v>
+      </c>
+      <c r="I62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F63" s="1">
+        <v>1</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F64" s="1">
+        <v>1</v>
+      </c>
+      <c r="G64" s="1">
+        <v>2</v>
+      </c>
+      <c r="I64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F65" s="1">
+        <v>1</v>
+      </c>
+      <c r="G65" s="1">
+        <v>3</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>42</v>
+      </c>
+      <c r="F66" s="1">
+        <v>1</v>
+      </c>
+      <c r="G66" s="1">
+        <v>4</v>
+      </c>
+      <c r="I66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F67" s="17">
+        <v>1</v>
+      </c>
+      <c r="G67" s="17">
+        <v>5</v>
+      </c>
+      <c r="I67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="1">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F68" s="17">
+        <v>2</v>
+      </c>
+      <c r="G68" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="1">
+        <v>2</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F69" s="17">
+        <v>2</v>
+      </c>
+      <c r="G69" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E74" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="1">
+        <v>1</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="1">
+        <v>2</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="1">
+        <v>3</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1</v>
+      </c>
+      <c r="E77" s="1">
+        <v>2</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="1">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1">
+        <v>2</v>
+      </c>
+      <c r="E78" s="1">
+        <v>3</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="1">
+        <v>2</v>
+      </c>
+      <c r="C79" s="1">
+        <v>2</v>
+      </c>
+      <c r="E79" s="1">
+        <v>4</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="1">
+        <v>3</v>
+      </c>
+      <c r="C80" s="1">
+        <v>2</v>
+      </c>
+      <c r="E80" s="1">
+        <v>5</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Unidad I/ModelosER/PruebasAerolinea.xlsx
+++ b/Unidad I/ModelosER/PruebasAerolinea.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="12495" windowHeight="4320"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="12495" windowHeight="4320"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="96">
   <si>
     <t>AVION</t>
   </si>
@@ -179,12 +179,6 @@
     <t>PILOTO</t>
   </si>
   <si>
-    <t>COPILOTO</t>
-  </si>
-  <si>
-    <t>AREMOSO</t>
-  </si>
-  <si>
     <t>NUMERO_VUELO</t>
   </si>
   <si>
@@ -219,6 +213,105 @@
   </si>
   <si>
     <t>ORDEN</t>
+  </si>
+  <si>
+    <t>MATUSALEN</t>
+  </si>
+  <si>
+    <t>RODRIGO</t>
+  </si>
+  <si>
+    <t>JESUS</t>
+  </si>
+  <si>
+    <t>CODIGO_TRIPULANTE_SUPERIOR</t>
+  </si>
+  <si>
+    <t>PAIS</t>
+  </si>
+  <si>
+    <t>CODIGO_PAIS</t>
+  </si>
+  <si>
+    <t>NOMBRE_PAIS</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO</t>
+  </si>
+  <si>
+    <t>CODIGO_DEPARTAMENTO</t>
+  </si>
+  <si>
+    <t>NOMBRE_DEPARTAMENTO</t>
+  </si>
+  <si>
+    <t>MUNICIPIO</t>
+  </si>
+  <si>
+    <t>CODIGO_MUNICIPIO</t>
+  </si>
+  <si>
+    <t>NOMBRE_MUNICIPIO</t>
+  </si>
+  <si>
+    <t>GUATEMALA</t>
+  </si>
+  <si>
+    <t>FRANCISCO MORAZAN</t>
+  </si>
+  <si>
+    <t>INTIBUCA</t>
+  </si>
+  <si>
+    <t>LEMPIRA</t>
+  </si>
+  <si>
+    <t>TEGUCIGALPA</t>
+  </si>
+  <si>
+    <t>DISTRITO CENTRAL</t>
+  </si>
+  <si>
+    <t>VALLE DE ANGELES</t>
+  </si>
+  <si>
+    <t>LA ESPERANZA</t>
+  </si>
+  <si>
+    <t>GRACIAS</t>
+  </si>
+  <si>
+    <t>LUGAR</t>
+  </si>
+  <si>
+    <t>LUGAR_PADRE</t>
+  </si>
+  <si>
+    <t>AMERICA</t>
+  </si>
+  <si>
+    <t>CENTRO AMERICA</t>
+  </si>
+  <si>
+    <t>COMAYAGUELA</t>
+  </si>
+  <si>
+    <t>CODIGO_TIPO_LUGAR</t>
+  </si>
+  <si>
+    <t>HORAS_VUELO</t>
+  </si>
+  <si>
+    <t>ESPECIALIZACION</t>
+  </si>
+  <si>
+    <t>CODIGO_TIPO_TRIPULANTE</t>
+  </si>
+  <si>
+    <t>CODIGO_PILOTO</t>
+  </si>
+  <si>
+    <t>EN VOLAR</t>
   </si>
 </sst>
 </file>
@@ -257,7 +350,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -506,11 +599,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -535,6 +639,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -815,16 +924,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:I80"/>
+  <dimension ref="A6:I117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C59" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -950,7 +1060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7">
         <v>2</v>
       </c>
@@ -967,10 +1077,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G18" s="16"/>
     </row>
-    <row r="21" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -978,7 +1088,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
@@ -996,7 +1106,7 @@
       </c>
       <c r="H22" s="16"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
         <v>1</v>
       </c>
@@ -1013,7 +1123,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="5">
         <v>2</v>
       </c>
@@ -1030,7 +1140,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="7">
         <v>3</v>
       </c>
@@ -1047,7 +1157,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F26" s="7">
         <v>4</v>
       </c>
@@ -1055,12 +1165,24 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
       <c r="F29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="F30" s="20" t="s">
         <v>22</v>
       </c>
@@ -1068,7 +1190,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1">
+        <v>40</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="F31" s="5">
         <v>1</v>
       </c>
@@ -1076,7 +1207,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
       <c r="F32" s="5">
         <v>1</v>
       </c>
@@ -1084,7 +1218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F33" s="5">
         <v>1</v>
       </c>
@@ -1092,7 +1226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="6:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F34" s="7">
         <v>2</v>
       </c>
@@ -1100,33 +1234,154 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F35" s="18"/>
       <c r="G35" s="19"/>
     </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F36" s="18"/>
       <c r="G36" s="19"/>
     </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
       <c r="F37" s="18"/>
       <c r="G37" s="19"/>
     </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>93</v>
+      </c>
       <c r="F38" s="18"/>
       <c r="G38" s="19"/>
     </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>2</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>3</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="17">
+        <v>4</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="17">
+        <v>5</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="17">
+        <v>4</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="17">
+        <v>6</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="17">
+        <v>4</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F46" s="1">
+        <v>2</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F47" s="1">
+        <v>2</v>
+      </c>
+      <c r="G47" s="1">
+        <v>2</v>
+      </c>
+    </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
@@ -1134,10 +1389,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D51" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
@@ -1145,13 +1397,7 @@
         <v>2</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D52" t="s">
-        <v>51</v>
-      </c>
-      <c r="E52" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
@@ -1159,301 +1405,560 @@
         <v>3</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D53" t="s">
-        <v>52</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="F53" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E54" s="1">
-        <v>1</v>
-      </c>
-      <c r="F54" s="1">
-        <v>1</v>
+      <c r="F54" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G54" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H54" t="s">
+        <v>61</v>
+      </c>
+      <c r="I54" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E55" s="1">
-        <v>1</v>
-      </c>
       <c r="F55" s="1">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E56" s="1">
-        <v>2</v>
-      </c>
       <c r="F56" s="1">
         <v>1</v>
       </c>
+      <c r="G56" s="1">
+        <v>2</v>
+      </c>
+      <c r="I56">
+        <v>3</v>
+      </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>31</v>
-      </c>
-      <c r="E57" s="1">
-        <v>2</v>
-      </c>
       <c r="F57" s="1">
+        <v>1</v>
+      </c>
+      <c r="G57" s="1">
+        <v>3</v>
+      </c>
+      <c r="I57">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>31</v>
+      <c r="B58" t="s">
+        <v>42</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1">
+        <v>4</v>
+      </c>
+      <c r="I58">
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="1">
-        <v>1</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>35</v>
+      <c r="B59" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F59" s="17">
+        <v>1</v>
+      </c>
+      <c r="G59" s="17">
+        <v>5</v>
+      </c>
+      <c r="I59">
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F60" s="17">
+        <v>2</v>
+      </c>
+      <c r="G60" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F61" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F62" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F61" s="17">
+        <v>2</v>
+      </c>
+      <c r="G61" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G62" s="23" t="s">
+      <c r="E66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="1">
+        <v>1</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="1">
+        <v>2</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="1">
+        <v>3</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
+      <c r="E69" s="1">
+        <v>2</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H62" t="s">
-        <v>63</v>
-      </c>
-      <c r="I62" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F63" s="1">
-        <v>1</v>
-      </c>
-      <c r="G63" s="1">
-        <v>1</v>
-      </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F64" s="1">
-        <v>1</v>
-      </c>
-      <c r="G64" s="1">
-        <v>2</v>
-      </c>
-      <c r="I64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F65" s="1">
-        <v>1</v>
-      </c>
-      <c r="G65" s="1">
-        <v>3</v>
-      </c>
-      <c r="I65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>42</v>
-      </c>
-      <c r="F66" s="1">
-        <v>1</v>
-      </c>
-      <c r="G66" s="1">
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="1">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1">
+        <v>2</v>
+      </c>
+      <c r="E70" s="1">
+        <v>3</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="1">
+        <v>2</v>
+      </c>
+      <c r="C71" s="1">
+        <v>2</v>
+      </c>
+      <c r="E71" s="1">
         <v>4</v>
       </c>
-      <c r="I66">
+      <c r="F71" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="1">
+        <v>3</v>
+      </c>
+      <c r="C72" s="1">
+        <v>2</v>
+      </c>
+      <c r="E72" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F67" s="17">
-        <v>1</v>
-      </c>
-      <c r="G67" s="17">
+      <c r="F72" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>67</v>
+      </c>
+      <c r="F98" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F99" t="s">
+        <v>55</v>
+      </c>
+      <c r="G99" t="s">
+        <v>56</v>
+      </c>
+      <c r="H99" t="s">
+        <v>86</v>
+      </c>
+      <c r="I99" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B100" s="1">
+        <v>1</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" s="2">
+        <v>1</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H100" s="4"/>
+      <c r="I100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B101" s="1">
+        <v>2</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F101" s="5">
+        <v>2</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H101" s="6">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B102" s="1">
+        <v>3</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F102" s="5">
+        <v>3</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H102" s="6">
+        <v>2</v>
+      </c>
+      <c r="I102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F103" s="5">
+        <v>4</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H103" s="6">
+        <v>2</v>
+      </c>
+      <c r="I103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F104" s="5">
         <v>5</v>
       </c>
-      <c r="I67">
+      <c r="G104" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H104" s="6">
+        <v>2</v>
+      </c>
+      <c r="I104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>70</v>
+      </c>
+      <c r="F105" s="5">
+        <v>6</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H105" s="6">
+        <v>3</v>
+      </c>
+      <c r="I105">
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="1">
-        <v>1</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F68" s="17">
-        <v>2</v>
-      </c>
-      <c r="G68" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="1">
-        <v>2</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F69" s="17">
-        <v>2</v>
-      </c>
-      <c r="G69" s="17">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B106" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F106" s="5">
+        <v>7</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H106" s="6">
+        <v>3</v>
+      </c>
+      <c r="I106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B107" s="1">
+        <v>1</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D107" s="1">
+        <v>1</v>
+      </c>
+      <c r="F107" s="5">
+        <v>8</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H107" s="6">
+        <v>3</v>
+      </c>
+      <c r="I107" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B108" s="1">
+        <v>2</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D108" s="1">
+        <v>1</v>
+      </c>
+      <c r="F108" s="25">
+        <v>9</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H108" s="26">
+        <v>6</v>
+      </c>
+      <c r="I108" s="16">
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E74" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="1">
-        <v>1</v>
-      </c>
-      <c r="C75" s="1">
-        <v>1</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="1">
-        <v>2</v>
-      </c>
-      <c r="C76" s="1">
-        <v>1</v>
-      </c>
-      <c r="E76" s="1">
-        <v>1</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="1">
-        <v>3</v>
-      </c>
-      <c r="C77" s="1">
-        <v>1</v>
-      </c>
-      <c r="E77" s="1">
-        <v>2</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="1">
-        <v>1</v>
-      </c>
-      <c r="C78" s="1">
-        <v>2</v>
-      </c>
-      <c r="E78" s="1">
-        <v>3</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B79" s="1">
-        <v>2</v>
-      </c>
-      <c r="C79" s="1">
-        <v>2</v>
-      </c>
-      <c r="E79" s="1">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B109" s="1">
+        <v>3</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D109" s="1">
+        <v>1</v>
+      </c>
+      <c r="F109" s="25">
+        <v>10</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H109" s="26">
+        <v>6</v>
+      </c>
+      <c r="I109" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F110" s="25">
+        <v>11</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H110" s="26">
+        <v>7</v>
+      </c>
+      <c r="I110" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F111" s="27">
+        <v>12</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H111" s="28">
+        <v>8</v>
+      </c>
+      <c r="I111" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>73</v>
+      </c>
+      <c r="F112" s="18">
+        <v>13</v>
+      </c>
+      <c r="G112" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H112" s="19">
+        <v>9</v>
+      </c>
+      <c r="I112" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B113" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F113" s="18">
+        <v>14</v>
+      </c>
+      <c r="G113" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="H113" s="19">
+        <v>9</v>
+      </c>
+      <c r="I113" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B114" s="1">
+        <v>1</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D114" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B115" s="1">
+        <v>2</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D115" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B116" s="1">
+        <v>3</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D116" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B117" s="1">
         <v>4</v>
       </c>
-      <c r="F79" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80" s="1">
-        <v>3</v>
-      </c>
-      <c r="C80" s="1">
-        <v>2</v>
-      </c>
-      <c r="E80" s="1">
-        <v>5</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>45</v>
+      <c r="C117" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D117" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Unidad I/ModelosER/PruebasAerolinea.xlsx
+++ b/Unidad I/ModelosER/PruebasAerolinea.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="12495" windowHeight="4320"/>
+    <workbookView xWindow="0" yWindow="2250" windowWidth="12495" windowHeight="4320"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="100">
   <si>
     <t>AVION</t>
   </si>
@@ -312,6 +312,18 @@
   </si>
   <si>
     <t>EN VOLAR</t>
+  </si>
+  <si>
+    <t>AEROMOZAS</t>
+  </si>
+  <si>
+    <t>IDIOMAS</t>
+  </si>
+  <si>
+    <t>ESPAÑOL, Ingles, Chino mandarin</t>
+  </si>
+  <si>
+    <t>CODIGO_AEROMOZAS</t>
   </si>
 </sst>
 </file>
@@ -614,7 +626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -644,6 +656,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -926,15 +940,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:I117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="1" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -1174,7 +1187,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="29" t="s">
         <v>94</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1183,6 +1196,7 @@
       <c r="C30" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="D30" s="24"/>
       <c r="F30" s="20" t="s">
         <v>22</v>
       </c>
@@ -1208,7 +1222,9 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
+      <c r="A32" s="1">
+        <v>2</v>
+      </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="F32" s="5">
@@ -1227,6 +1243,9 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>96</v>
+      </c>
       <c r="F34" s="7">
         <v>2</v>
       </c>
@@ -1235,76 +1254,70 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" t="s">
+        <v>97</v>
+      </c>
       <c r="F35" s="18"/>
       <c r="G35" s="19"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>98</v>
+      </c>
       <c r="F36" s="18"/>
       <c r="G36" s="19"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>30</v>
-      </c>
       <c r="F37" s="18"/>
       <c r="G37" s="19"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>93</v>
-      </c>
       <c r="F38" s="18"/>
       <c r="G38" s="19"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>1</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39">
-        <v>1</v>
+      <c r="A39" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>2</v>
+      <c r="A40" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="1">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="1">
+        <v>38</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="17">
-        <v>4</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>63</v>
+      <c r="A42" s="1">
+        <v>2</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
@@ -1314,14 +1327,14 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="17">
-        <v>5</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" s="17">
-        <v>4</v>
+      <c r="A43" s="1">
+        <v>3</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>32</v>
@@ -1332,30 +1345,48 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="17">
+        <v>4</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="17">
+        <v>5</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="17">
+        <v>4</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="17">
         <v>6</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B46" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C46" s="17">
         <v>4</v>
       </c>
-      <c r="F44" s="1">
-        <v>1</v>
-      </c>
-      <c r="G44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F45" s="1">
-        <v>1</v>
-      </c>
-      <c r="G45" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F46" s="1">
         <v>2</v>
       </c>

--- a/Unidad I/ModelosER/PruebasAerolinea.xlsx
+++ b/Unidad I/ModelosER/PruebasAerolinea.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2250" windowWidth="12495" windowHeight="4320"/>
+    <workbookView xWindow="0" yWindow="2700" windowWidth="12495" windowHeight="4320"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:I117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
